--- a/LPBF_origVShpVSpoly_plots.xlsx
+++ b/LPBF_origVShpVSpoly_plots.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Radif\PycharmProjects\DataAug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E86F743-3B8B-4D38-9269-BC21803D7C98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F1E596-34F1-4D9D-A27F-63C88BC99775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8610" yWindow="1920" windowWidth="28800" windowHeight="15375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="width" sheetId="6" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
   <si>
     <t>Model</t>
   </si>
@@ -82,6 +82,12 @@
   </si>
   <si>
     <t>MAE after applying default ML modeling parameters</t>
+  </si>
+  <si>
+    <t>MAE after applying polynomial feature expansion-6</t>
+  </si>
+  <si>
+    <t>MAE after applying polynomial feature expansion-12</t>
   </si>
 </sst>
 </file>
@@ -153,7 +159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -163,6 +169,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -229,7 +238,7 @@
     <c:plotArea>
       <c:layout/>
       <c:barChart>
-        <c:barDir val="col"/>
+        <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
@@ -467,7 +476,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MAE after applying polynomial feature expansion</c:v>
+                  <c:v>MAE after applying polynomial feature expansion-6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -530,7 +539,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>9.7067835990771699E-3</c:v>
+                  <c:v>6.94910307096134E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.7758925774151401E-2</c:v>
@@ -539,28 +548,28 @@
                   <c:v>1.7758925774151401E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6198698818310799E-2</c:v>
+                  <c:v>1.1497147534888799E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0373325989499501E-2</c:v>
+                  <c:v>9.9738106898824095E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.08370470906028E-2</c:v>
+                  <c:v>1.8506441686099901E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.1516908454964702E-3</c:v>
+                  <c:v>5.8391403406181201E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.5661660847763604E-3</c:v>
+                  <c:v>5.8543965905948703E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.235266715769784</c:v>
+                  <c:v>7.99916540155368E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.0834384199569798E-3</c:v>
+                  <c:v>5.9498866565669004E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.9005347172678396E-3</c:v>
+                  <c:v>6.7401835751412604E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -568,6 +577,78 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-7D8E-4A1B-A11E-41E3B3F45038}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>width!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MAE after applying polynomial feature expansion-12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>width!$E$2:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>8.9787200000000008E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.9519610000000005E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.9519610000000005E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1080025E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2070515E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6389201999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.207598E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.3570950000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.4949860000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.4468989999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.7999430000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4E96-4D88-9EBA-C9CCF1F14554}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -589,7 +670,7 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -640,7 +721,7 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -704,10 +785,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.17454833955027213"/>
-          <c:y val="0.12461722540460272"/>
-          <c:w val="0.48288152232656584"/>
-          <c:h val="0.17507713282835297"/>
+          <c:x val="0.52865849694378697"/>
+          <c:y val="0.29892911003657441"/>
+          <c:w val="0.38532056059569941"/>
+          <c:h val="0.26070402352476013"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2478,16 +2559,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1543049</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>361949</xdr:colOff>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>161924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2819,35 +2900,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA7A6F03-7FD9-49C0-B119-F1A35866EF93}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D12"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="127.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="127.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
-        <v>13</v>
+      <c r="D1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2858,10 +2943,13 @@
         <v>9.7067835990771699E-3</v>
       </c>
       <c r="D2">
-        <v>9.7067835990771699E-3</v>
+        <v>6.94910307096134E-3</v>
+      </c>
+      <c r="E2">
+        <v>8.9787200000000008E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2874,8 +2962,11 @@
       <c r="D3">
         <v>1.7758925774151401E-2</v>
       </c>
+      <c r="E3">
+        <v>9.9519610000000005E-3</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2888,8 +2979,11 @@
       <c r="D4">
         <v>1.7758925774151401E-2</v>
       </c>
+      <c r="E4">
+        <v>9.9519610000000005E-3</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2900,10 +2994,13 @@
         <v>1.6198698818310799E-2</v>
       </c>
       <c r="D5">
-        <v>1.6198698818310799E-2</v>
+        <v>1.1497147534888799E-2</v>
+      </c>
+      <c r="E5">
+        <v>1.1080025E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2914,10 +3011,13 @@
         <v>1.0373325989499501E-2</v>
       </c>
       <c r="D6">
-        <v>1.0373325989499501E-2</v>
+        <v>9.9738106898824095E-3</v>
+      </c>
+      <c r="E6">
+        <v>1.2070515E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2928,10 +3028,13 @@
         <v>1.08370470906028E-2</v>
       </c>
       <c r="D7">
-        <v>1.08370470906028E-2</v>
+        <v>1.8506441686099901E-2</v>
+      </c>
+      <c r="E7">
+        <v>1.6389201999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2942,10 +3045,13 @@
         <v>6.1516908454964702E-3</v>
       </c>
       <c r="D8">
-        <v>6.1516908454964702E-3</v>
+        <v>5.8391403406181201E-3</v>
+      </c>
+      <c r="E8">
+        <v>7.207598E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2956,10 +3062,13 @@
         <v>5.5661660847763604E-3</v>
       </c>
       <c r="D9">
-        <v>5.5661660847763604E-3</v>
+        <v>5.8543965905948703E-3</v>
+      </c>
+      <c r="E9">
+        <v>8.3570950000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2970,10 +3079,13 @@
         <v>0.235266715769784</v>
       </c>
       <c r="D10">
-        <v>0.235266715769784</v>
+        <v>7.99916540155368E-3</v>
+      </c>
+      <c r="E10">
+        <v>9.4949860000000004E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2984,10 +3096,13 @@
         <v>6.0834384199569798E-3</v>
       </c>
       <c r="D11">
-        <v>6.0834384199569798E-3</v>
+        <v>5.9498866565669004E-3</v>
+      </c>
+      <c r="E11">
+        <v>7.4468989999999999E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2998,10 +3113,13 @@
         <v>6.9005347172678396E-3</v>
       </c>
       <c r="D12">
-        <v>6.9005347172678396E-3</v>
+        <v>6.7401835751412604E-3</v>
+      </c>
+      <c r="E12">
+        <v>6.7999430000000001E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
